--- a/data/trans_camb/P0901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-4,5</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 8,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,75</t>
+          <t>-6,83; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 15,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -1,23</t>
+          <t>-13,51; -1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 9,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -0,13</t>
+          <t>-8,7; -0,72</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,99%</t>
+          <t>-35,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,63%</t>
+          <t>-29,27%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,65; 104,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 44,25</t>
+          <t>-51,15; 38,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 96,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; -7,18</t>
+          <t>-55,11; -9,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 72,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,61; -0,87</t>
+          <t>-48,18; -5,42</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>7,25</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,85</t>
+          <t>3,21; 12,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,6</t>
+          <t>1,9; 11,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,6</t>
+          <t>3,91; 10,87</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>52,5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 176,04</t>
+          <t>26,55; 165,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 77,31</t>
+          <t>9,07; 75,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 94,9</t>
+          <t>24,44; 88,99</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>6,84</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,28</t>
+          <t>4,18; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,03</t>
+          <t>-0,35; 10,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,36</t>
+          <t>2,93; 10,14</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>142,81%</t>
+          <t>137,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>68,18%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,41; 309,77</t>
+          <t>48,5; 300,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 88,42</t>
+          <t>-3,21; 87,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 125,09</t>
+          <t>24,89; 122,09</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>9,42</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,56</t>
+          <t>6,46; 15,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 22,0</t>
+          <t>9,63; 21,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 19,73</t>
+          <t>10,54; 22,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,17</t>
+          <t>-5,02; 10,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 15,18</t>
+          <t>10,17; 17,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,83</t>
+          <t>3,61; 14,03</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>192,76%</t>
+          <t>210,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>298,4%</t>
+          <t>290,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>102,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>112,08%</t>
+          <t>127,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>110,76%</t>
+          <t>87,34%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,5; 414,37</t>
+          <t>86,13; 469,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>132,92; 636,8</t>
+          <t>129,08; 625,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,45; 149,18</t>
+          <t>54,25; 164,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 109,13</t>
+          <t>-25,45; 76,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>68,56; 167,84</t>
+          <t>80,33; 188,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58,74; 167,69</t>
+          <t>30,57; 144,22</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,8</t>
+          <t>-5,24; 3,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,3</t>
+          <t>-5,02; 6,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,78</t>
+          <t>-3,34; 3,81</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 79,12</t>
+          <t>-49,1; 79,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 79,71</t>
+          <t>-30,78; 80,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 49,15</t>
+          <t>-27,08; 50,62</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,71</t>
+          <t>-2,3; 7,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,97</t>
+          <t>-6,17; 4,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,89</t>
+          <t>-2,86; 4,71</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 108,93</t>
+          <t>-19,37; 106,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 37,12</t>
+          <t>-28,21; 37,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 43,06</t>
+          <t>-17,42; 41,78</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>4,88</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,62</t>
+          <t>1,5; 9,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 11,42</t>
+          <t>-5,92; 10,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,73</t>
+          <t>-2,07; 8,63</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>41,32%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,13; 121,86</t>
+          <t>11,95; 114,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 88,99</t>
+          <t>-38,09; 81,51</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,15; 91,98</t>
+          <t>-11,2; 79,09</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,57</t>
+          <t>-8,16; 2,24</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,02</t>
+          <t>-1,27; 6,94</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,99</t>
+          <t>-6,26; 2,76</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>-18,9%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>-3,72%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 38,24</t>
+          <t>-65,84; 21,05</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 43,78</t>
+          <t>-6,28; 43,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 30,25</t>
+          <t>-40,22; 20,0</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>3,36</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,77</t>
+          <t>1,01; 5,76</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,85</t>
+          <t>-0,77; 4,9</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,91</t>
+          <t>1,34; 5,14</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>26,36%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>36,05; 81,27</t>
+          <t>10,97; 67,45</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,0; 37,67</t>
+          <t>-4,26; 30,89</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,42; 48,63</t>
+          <t>10,44; 42,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,58</t>
+          <t>-2,62; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,25</t>
+          <t>-4,34; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 3,04</t>
+          <t>-6,77; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 15,02</t>
+          <t>0,55; 15,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 13,61</t>
+          <t>-1,54; 13,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -1,63</t>
+          <t>-13,14; -0,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 9,64</t>
+          <t>0,78; 10,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,22</t>
+          <t>-0,74; 8,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -0,72</t>
+          <t>-8,68; -0,82</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 104,33</t>
+          <t>-20,13; 107,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 88,73</t>
+          <t>-32,84; 83,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 38,63</t>
+          <t>-49,54; 39,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 96,97</t>
+          <t>1,19; 94,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 87,04</t>
+          <t>-7,19; 85,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; -9,89</t>
+          <t>-53,89; -4,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 72,82</t>
+          <t>3,94; 79,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 62,65</t>
+          <t>-4,48; 67,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,18; -5,42</t>
+          <t>-48,55; -6,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,89</t>
+          <t>-2,35; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,49</t>
+          <t>-4,4; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,86</t>
+          <t>3,68; 12,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,76</t>
+          <t>-4,14; 5,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 3,27</t>
+          <t>-5,89; 4,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,51</t>
+          <t>2,23; 11,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,56</t>
+          <t>-2,05; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,94</t>
+          <t>-4,39; 1,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,87</t>
+          <t>3,99; 10,47</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 77,08</t>
+          <t>-21,65; 77,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 31,85</t>
+          <t>-39,39; 35,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,55; 165,51</t>
+          <t>31,12; 177,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 37,67</t>
+          <t>-20,18; 34,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 20,91</t>
+          <t>-28,92; 28,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 75,76</t>
+          <t>11,04; 72,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 36,84</t>
+          <t>-13,86; 37,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 16,22</t>
+          <t>-27,98; 16,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 88,99</t>
+          <t>24,64; 82,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,63</t>
+          <t>1,48; 10,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,04</t>
+          <t>-1,17; 6,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,85</t>
+          <t>4,29; 12,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 11,53</t>
+          <t>-0,04; 11,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,47</t>
+          <t>-7,25; 3,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 10,17</t>
+          <t>0,19; 10,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,24</t>
+          <t>2,13; 9,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,98</t>
+          <t>-3,22; 3,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 10,14</t>
+          <t>3,01; 10,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 250,85</t>
+          <t>17,89; 272,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 174,96</t>
+          <t>-16,57; 158,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,5; 300,1</t>
+          <t>42,32; 293,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 106,37</t>
+          <t>-0,91; 105,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 31,09</t>
+          <t>-43,11; 34,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 87,41</t>
+          <t>1,2; 98,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 122,52</t>
+          <t>17,78; 116,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 46,38</t>
+          <t>-27,29; 44,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,89; 122,09</t>
+          <t>22,42; 121,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,98</t>
+          <t>6,03; 15,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 16,95</t>
+          <t>7,28; 16,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 21,43</t>
+          <t>9,5; 20,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 22,38</t>
+          <t>10,66; 22,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,49</t>
+          <t>10,08; 22,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,94</t>
+          <t>-4,83; 11,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,82</t>
+          <t>9,53; 17,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 18,08</t>
+          <t>9,92; 18,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,03</t>
+          <t>3,53; 14,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,13; 469,63</t>
+          <t>81,98; 468,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,47; 480,56</t>
+          <t>87,92; 488,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>129,08; 625,47</t>
+          <t>128,73; 574,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>54,25; 164,62</t>
+          <t>52,98; 162,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,41; 164,75</t>
+          <t>49,96; 159,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 76,74</t>
+          <t>-26,09; 79,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,33; 188,92</t>
+          <t>74,38; 188,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,94; 195,32</t>
+          <t>79,55; 195,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,57; 144,22</t>
+          <t>31,6; 146,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 10,7</t>
+          <t>-0,48; 10,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,53</t>
+          <t>-4,73; 5,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,87</t>
+          <t>-5,25; 4,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,65; 19,82</t>
+          <t>5,66; 20,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,69</t>
+          <t>-5,64; 7,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 6,36</t>
+          <t>-5,07; 5,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 13,69</t>
+          <t>4,27; 14,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,14</t>
+          <t>-3,07; 5,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,81</t>
+          <t>-3,44; 3,75</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 203,75</t>
+          <t>-9,63; 196,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 109,53</t>
+          <t>-46,36; 115,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 79,08</t>
+          <t>-49,4; 79,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,81; 222,9</t>
+          <t>32,34; 220,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 88,47</t>
+          <t>-36,77; 86,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 80,24</t>
+          <t>-31,07; 68,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>37,19; 176,19</t>
+          <t>34,61; 180,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 66,44</t>
+          <t>-25,44; 67,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 50,62</t>
+          <t>-29,27; 51,26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,41</t>
+          <t>-1,41; 9,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,74</t>
+          <t>1,19; 12,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,49</t>
+          <t>-2,03; 7,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 6,75</t>
+          <t>-6,37; 6,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 14,0</t>
+          <t>-0,19; 14,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 4,99</t>
+          <t>-6,11; 5,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,17</t>
+          <t>-2,19; 6,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,61</t>
+          <t>2,71; 11,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,71</t>
+          <t>-2,52; 4,72</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 125,61</t>
+          <t>-11,36; 127,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,01; 188,1</t>
+          <t>9,42; 180,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 106,76</t>
+          <t>-17,88; 98,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 47,12</t>
+          <t>-31,14; 49,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,34; 100,23</t>
+          <t>-1,1; 102,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 37,15</t>
+          <t>-29,78; 36,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 53,43</t>
+          <t>-14,49; 51,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,79; 99,8</t>
+          <t>17,41; 104,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 41,78</t>
+          <t>-16,01; 42,06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,06</t>
+          <t>-3,35; 3,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,89</t>
+          <t>-1,84; 4,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,25</t>
+          <t>1,64; 9,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,59</t>
+          <t>-2,07; 5,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,77</t>
+          <t>2,96; 11,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 10,95</t>
+          <t>-4,77; 10,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,61</t>
+          <t>-1,5; 3,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,16</t>
+          <t>1,67; 7,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,63</t>
+          <t>-2,53; 8,39</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 39,55</t>
+          <t>-30,0; 41,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 60,72</t>
+          <t>-17,15; 59,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>11,95; 114,47</t>
+          <t>13,2; 115,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 45,2</t>
+          <t>-13,86; 47,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>12,9; 89,54</t>
+          <t>18,66; 93,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 81,51</t>
+          <t>-32,91; 80,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 33,96</t>
+          <t>-11,92; 32,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,71; 67,36</t>
+          <t>13,03; 66,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 79,09</t>
+          <t>-17,67; 74,84</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,91</t>
+          <t>-2,57; 4,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -1,15</t>
+          <t>-6,96; -1,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 2,24</t>
+          <t>-8,42; 2,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,69</t>
+          <t>-2,91; 4,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,03</t>
+          <t>-7,61; 0,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,94</t>
+          <t>-1,19; 6,52</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,12</t>
+          <t>-1,77; 3,5</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -1,49</t>
+          <t>-6,16; -1,37</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,76</t>
+          <t>-6,49; 2,72</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 44,76</t>
+          <t>-21,49; 42,27</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -11,14</t>
+          <t>-56,46; -14,12</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 21,05</t>
+          <t>-65,52; 21,2</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 28,88</t>
+          <t>-14,37; 31,7</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 0,1</t>
+          <t>-38,79; 1,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 43,32</t>
+          <t>-5,75; 41,49</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 23,5</t>
+          <t>-11,4; 26,65</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -11,24</t>
+          <t>-39,44; -10,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 20,0</t>
+          <t>-40,44; 19,62</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,52; 4,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,05; 2,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,76</t>
+          <t>1,21; 5,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,67; 6,41</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,42; 5,05</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,9</t>
+          <t>-0,92; 4,78</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,49; 4,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,06; 3,48</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,14</t>
+          <t>1,15; 4,74</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,92; 53,7</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>-0,67; 33,58</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>10,97; 67,45</t>
+          <t>12,55; 67,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,62; 41,1</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>8,47; 32,48</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 30,89</t>
+          <t>-5,04; 30,37</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>18,96; 40,72</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>7,88; 28,49</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>10,44; 42,5</t>
+          <t>9,7; 39,08</t>
         </is>
       </c>
     </row>
